--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3456576.86496503</v>
+        <v>3461516.127814061</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>307.7676307244759</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>132.5172612375155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>107.5244539976645</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.5084719020914</v>
+        <v>26.26583888007716</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>405.3633998272713</v>
       </c>
       <c r="G8" t="n">
-        <v>70.70450777833832</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>72.65793777463499</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385012</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1584,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>76.51464418253316</v>
       </c>
       <c r="Y13" t="n">
-        <v>36.59669811656369</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.964386311590722</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056513</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065117</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065117</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>139.153727875004</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065117</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.482788338502</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.78528632085934</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>1.900916560955949</v>
+        <v>1.524467086866751</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274766</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>271.7818641996903</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>57.64843562452676</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>38.99176601649316</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>210.9685212521368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>77.74146402679878</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>86.18768101996842</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1725.724578248621</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1356.76206130821</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>998.4963627014592</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>612.7081101032149</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>201.7222053136074</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>187.7988012521983</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>187.7988012521983</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>2112.324418312743</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
         <v>667.8624625746712</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T5" t="n">
-        <v>2588.538531424622</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U5" t="n">
-        <v>2334.776746062713</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V5" t="n">
-        <v>2334.776746062713</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W5" t="n">
-        <v>1982.008090792599</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.008090792599</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.038025956152</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>216.038025956152</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D7" t="n">
-        <v>216.038025956152</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E7" t="n">
-        <v>216.038025956152</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="F7" t="n">
-        <v>216.038025956152</v>
+        <v>249.4739324659484</v>
       </c>
       <c r="G7" t="n">
-        <v>216.038025956152</v>
+        <v>80.47413220428078</v>
       </c>
       <c r="H7" t="n">
-        <v>216.038025956152</v>
+        <v>80.47413220428078</v>
       </c>
       <c r="I7" t="n">
-        <v>79.70911505480021</v>
+        <v>80.47413220428078</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>216.038025956152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.038025956152</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>490.5728759019127</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>490.5728759019127</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D8" t="n">
-        <v>132.3071772951622</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="E8" t="n">
-        <v>132.3071772951622</v>
+        <v>477.32436550528</v>
       </c>
       <c r="F8" t="n">
-        <v>125.3616765459587</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1267.312047941846</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>877.1727159660345</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.542980734167</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570734</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W13" t="n">
-        <v>531.1091870201128</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X13" t="n">
-        <v>303.1196361220955</v>
+        <v>597.7195836620479</v>
       </c>
       <c r="Y13" t="n">
-        <v>266.1532743881928</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="14">
@@ -5275,49 +5275,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277031</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.542980734167</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>549.6692635248398</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>549.6692635248398</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>399.5526241125041</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>251.639530530111</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>251.639530530111</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765184</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706316</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>241.980548233671</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>731.3177283550796</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5509,31 +5509,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5542,7 +5542,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5703,19 +5703,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.607977814708</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211719</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011334</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1966.019627967825</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5913,46 +5913,46 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,19 +6001,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
         <v>358.2718071316295</v>
@@ -6065,19 +6065,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6104,7 +6104,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6156,13 +6156,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6454,34 +6454,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1336.117678709276</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.700508672316</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>268.0733921265321</v>
+        <v>565.0010960824696</v>
       </c>
       <c r="C34" t="n">
-        <v>99.13720919862519</v>
+        <v>396.0649131545628</v>
       </c>
       <c r="D34" t="n">
-        <v>99.13720919862519</v>
+        <v>396.0649131545628</v>
       </c>
       <c r="E34" t="n">
-        <v>99.13720919862519</v>
+        <v>396.0649131545628</v>
       </c>
       <c r="F34" t="n">
-        <v>99.13720919862519</v>
+        <v>249.1749656566524</v>
       </c>
       <c r="G34" t="n">
-        <v>99.13720919862519</v>
+        <v>249.1749656566524</v>
       </c>
       <c r="H34" t="n">
-        <v>99.13720919862519</v>
+        <v>98.75695720459569</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W34" t="n">
-        <v>898.5039869983193</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X34" t="n">
-        <v>670.514436100302</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y34" t="n">
-        <v>449.7218569567718</v>
+        <v>565.0010960824696</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.32138455061</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610198</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003448</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405203</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155959</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080554</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822533</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028599</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823793</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.8545730143</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231271</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141875</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465308</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121738</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851623</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590543</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614732</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126487</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571619</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636266</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241961</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688078</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799374</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473457</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262963</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.210845262963</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>820.5263570570763</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018335</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038161</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.217091460286</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,34 +7162,34 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795202</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899127</v>
@@ -7238,43 +7238,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636264</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>324.3840174432703</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>155.4478345153634</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7332,52 +7332,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557905</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557905</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352018</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150575</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170402</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.03248227351</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7475,37 +7475,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636264</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473457</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262963</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.210845262963</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>820.5263570570763</v>
+        <v>946.6165943220844</v>
       </c>
       <c r="W43" t="n">
-        <v>531.1091870201158</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>657.1994242851239</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7657,22 +7657,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>437.6964226305959</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>437.6964226305959</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>644.2594646985458</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y46" t="n">
-        <v>437.6964226305959</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229594</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229594</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711656</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>288.4091825776762</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>159.0121003135249</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776759</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776703</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445199</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776707</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445199</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208019</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>149.195011206504</v>
       </c>
       <c r="Y13" t="n">
-        <v>181.9879552355311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>162.5291821517869</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338588</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518776</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="20">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518776</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>79.43092547709077</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518776</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>83.04669386107796</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>108.518328903316</v>
+        <v>108.8947783774052</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>14.74113413690065</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>90.96703739368559</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>213.1458773073348</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>14.74113413690034</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>88.7521044365788</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>200.3353173166226</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>705687.6684372856</v>
+        <v>705687.6684372857</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>705687.6684372857</v>
+        <v>705687.6684372856</v>
       </c>
     </row>
     <row r="10">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409899</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="F2" t="n">
         <v>684300.8545409902</v>
       </c>
       <c r="G2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="J2" t="n">
         <v>684300.8545409904</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409902</v>
       </c>
       <c r="K2" t="n">
         <v>684300.85454099</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.85454099</v>
       </c>
       <c r="M2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409899</v>
+        <v>684300.8545409903</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338386</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687078</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26450,16 +26450,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687037</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687065</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26502,13 +26502,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871675</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120048.2764332303</v>
+        <v>-120048.2764332306</v>
       </c>
       <c r="C6" t="n">
         <v>469919.6027813138</v>
       </c>
       <c r="D6" t="n">
-        <v>469919.6027813141</v>
+        <v>469919.6027813144</v>
       </c>
       <c r="E6" t="n">
-        <v>44004.29326878508</v>
+        <v>44881.42540253454</v>
       </c>
       <c r="F6" t="n">
-        <v>569164.3297456811</v>
+        <v>570041.4618794308</v>
       </c>
       <c r="G6" t="n">
-        <v>569164.3297456815</v>
+        <v>570041.4618794307</v>
       </c>
       <c r="H6" t="n">
-        <v>569164.3297456815</v>
+        <v>570041.4618794306</v>
       </c>
       <c r="I6" t="n">
-        <v>569164.3297456815</v>
+        <v>570041.4618794306</v>
       </c>
       <c r="J6" t="n">
-        <v>392741.1105530883</v>
+        <v>393618.242686838</v>
       </c>
       <c r="K6" t="n">
-        <v>569164.329745681</v>
+        <v>570041.4618794306</v>
       </c>
       <c r="L6" t="n">
-        <v>569164.3297456813</v>
+        <v>570041.4618794306</v>
       </c>
       <c r="M6" t="n">
-        <v>434363.3145118434</v>
+        <v>435240.4466455937</v>
       </c>
       <c r="N6" t="n">
-        <v>569164.329745682</v>
+        <v>570041.4618794309</v>
       </c>
       <c r="O6" t="n">
-        <v>569164.3297456817</v>
+        <v>570041.461879431</v>
       </c>
       <c r="P6" t="n">
-        <v>569164.3297456818</v>
+        <v>570041.4618794309</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253575</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-3.666574523776553e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990191</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>99.10841501723559</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>19.41405500734575</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>48.19472341080782</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>108.9238663599933</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>19.6914872864456</v>
+        <v>18.93412030845985</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>1.5126459144401</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>343.0796622424567</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>153.0517176144022</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.445189800606532e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,31 +32639,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32879,10 +32879,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734255</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734255</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>598.8335596281423</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>366.1055152450495</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092005</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091955</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.502597509196</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523272</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686883</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
